--- a/January 2023 Analysis/New Analysis/sampleset/sample_space2/dummy_data_unseen_prediction.xlsx
+++ b/January 2023 Analysis/New Analysis/sampleset/sample_space2/dummy_data_unseen_prediction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rashedhasan/Desktop/UNL/Research/Object relational mapping/Step 5 - Abstraction/OM-Solution_Mapping/OM-ML_Research/January 2023 Analysis/New Analysis/sampleset/sample_space2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540A9F8E-3D0B-124E-AC66-69551F15F2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EC1C8E-692E-494D-B6AA-5FC917430BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16360" xr2:uid="{83D6A64E-5C3C-BB4F-BC91-586927EEDB0C}"/>
+    <workbookView xWindow="460" yWindow="2500" windowWidth="28040" windowHeight="16360" xr2:uid="{83D6A64E-5C3C-BB4F-BC91-586927EEDB0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="100">
   <si>
     <t>OM_Regular</t>
   </si>
@@ -44,9 +44,6 @@
     <t>OM_Prediction</t>
   </si>
   <si>
-    <t xml:space="preserve">class1,table1,obj1,atr1,np </t>
-  </si>
-  <si>
     <t xml:space="preserve">class1,table2,obj1,atr1,np </t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t xml:space="preserve">class1,table11,obj1,atr1,np </t>
   </si>
   <si>
-    <t xml:space="preserve">class1,table12,obj1,atr1,np </t>
-  </si>
-  <si>
     <t xml:space="preserve">class1,table13,obj1,atr1,np </t>
   </si>
   <si>
@@ -104,9 +98,6 @@
     <t xml:space="preserve">class2,table4,obj2,atr2,np </t>
   </si>
   <si>
-    <t xml:space="preserve">class2,table5,obj2,atr2,np </t>
-  </si>
-  <si>
     <t xml:space="preserve">class2,table6,obj2,atr2,np </t>
   </si>
   <si>
@@ -116,12 +107,6 @@
     <t xml:space="preserve">class2,table8,obj2,atr2,np </t>
   </si>
   <si>
-    <t xml:space="preserve">class2,table9,obj2,atr2,np </t>
-  </si>
-  <si>
-    <t xml:space="preserve">class2,table10,obj2,atr2,np </t>
-  </si>
-  <si>
     <t xml:space="preserve">class2,table11,obj2,atr2,np </t>
   </si>
   <si>
@@ -137,9 +122,6 @@
     <t xml:space="preserve">class2,table15,obj2,atr2,np </t>
   </si>
   <si>
-    <t xml:space="preserve">class2,table16,obj2,atr2,np </t>
-  </si>
-  <si>
     <t xml:space="preserve">class3,table1,obj1,atr1,np </t>
   </si>
   <si>
@@ -149,9 +131,6 @@
     <t xml:space="preserve">class3,table4,obj1,atr1,np </t>
   </si>
   <si>
-    <t xml:space="preserve">class3,table5,obj1,atr1,np </t>
-  </si>
-  <si>
     <t xml:space="preserve">class3,table6,obj1,atr1,np </t>
   </si>
   <si>
@@ -164,21 +143,12 @@
     <t xml:space="preserve">class3,table11,obj1,atr1,np </t>
   </si>
   <si>
-    <t xml:space="preserve">class3,table12,obj1,atr1,np </t>
-  </si>
-  <si>
-    <t xml:space="preserve">class3,table13,obj1,atr1,np </t>
-  </si>
-  <si>
     <t xml:space="preserve">class3,table14,obj1,atr1,np </t>
   </si>
   <si>
     <t xml:space="preserve">class3,table15,obj1,atr1,np </t>
   </si>
   <si>
-    <t xml:space="preserve">class3,table16,obj1,atr1,np </t>
-  </si>
-  <si>
     <t xml:space="preserve">class3,table17,obj1,atr1,np </t>
   </si>
   <si>
@@ -188,9 +158,6 @@
     <t xml:space="preserve">class4,table1,obj2,atr2,np </t>
   </si>
   <si>
-    <t xml:space="preserve">class4,table3,obj2,atr2,np </t>
-  </si>
-  <si>
     <t xml:space="preserve">class4,table4,obj2,atr2,np </t>
   </si>
   <si>
@@ -215,9 +182,6 @@
     <t xml:space="preserve">class4,table13,obj2,atr2,np </t>
   </si>
   <si>
-    <t xml:space="preserve">class4,table14,obj2,atr2,np </t>
-  </si>
-  <si>
     <t xml:space="preserve">class4,table15,obj2,atr2,np </t>
   </si>
   <si>
@@ -242,9 +206,6 @@
     <t xml:space="preserve">class5,table7,obj1,atr1,np </t>
   </si>
   <si>
-    <t xml:space="preserve">class5,table8,obj1,atr1,np </t>
-  </si>
-  <si>
     <t xml:space="preserve">class5,table9,obj1,atr1,np </t>
   </si>
   <si>
@@ -263,9 +224,6 @@
     <t xml:space="preserve">class5,table15,obj1,atr1,np </t>
   </si>
   <si>
-    <t xml:space="preserve">class5,table16,obj1,atr1,np </t>
-  </si>
-  <si>
     <t xml:space="preserve">class5,table17,obj1,atr1,np </t>
   </si>
   <si>
@@ -293,24 +251,12 @@
     <t xml:space="preserve">class6,table8,obj1,atr1,np </t>
   </si>
   <si>
-    <t xml:space="preserve">class6,table10,obj1,atr1,np </t>
-  </si>
-  <si>
     <t xml:space="preserve">class6,table12,obj1,atr1,np </t>
   </si>
   <si>
-    <t xml:space="preserve">class6,table14,obj1,atr1,np </t>
-  </si>
-  <si>
-    <t xml:space="preserve">class6,table15,obj1,atr1,np </t>
-  </si>
-  <si>
     <t xml:space="preserve">class6,table16,obj1,atr1,np </t>
   </si>
   <si>
-    <t xml:space="preserve">class6,table17,obj1,atr1,np </t>
-  </si>
-  <si>
     <t xml:space="preserve">class6,table18,obj1,atr1,np </t>
   </si>
   <si>
@@ -332,9 +278,6 @@
     <t xml:space="preserve">class34,table19,obj23,atr9,p </t>
   </si>
   <si>
-    <t xml:space="preserve">class34,table21,obj23,atr11,p </t>
-  </si>
-  <si>
     <t xml:space="preserve">class34,table22,obj23,atr12,p </t>
   </si>
   <si>
@@ -345,6 +288,54 @@
   </si>
   <si>
     <t xml:space="preserve">class34,table25,obj23,atr15,p </t>
+  </si>
+  <si>
+    <t xml:space="preserve">class1,table4,obj1,atr1,np </t>
+  </si>
+  <si>
+    <t xml:space="preserve">class1,table5,obj1,atr1,np </t>
+  </si>
+  <si>
+    <t xml:space="preserve">class1,table10,obj1,atr1,np </t>
+  </si>
+  <si>
+    <t xml:space="preserve">class2,table17,obj2,atr2,np </t>
+  </si>
+  <si>
+    <t xml:space="preserve">class2,table18,obj2,atr2,np </t>
+  </si>
+  <si>
+    <t xml:space="preserve">class3,table2,obj1,atr1,np </t>
+  </si>
+  <si>
+    <t xml:space="preserve">class3,table7,obj1,atr1,np </t>
+  </si>
+  <si>
+    <t xml:space="preserve">class3,table10,obj1,atr1,np </t>
+  </si>
+  <si>
+    <t xml:space="preserve">class4,table2,obj2,atr2,np </t>
+  </si>
+  <si>
+    <t xml:space="preserve">class4,table7,obj2,atr2,np </t>
+  </si>
+  <si>
+    <t xml:space="preserve">class4,table16,obj2,atr2,np </t>
+  </si>
+  <si>
+    <t xml:space="preserve">class5,table2,obj1,atr1,np </t>
+  </si>
+  <si>
+    <t xml:space="preserve">class5,table10,obj1,atr1,np </t>
+  </si>
+  <si>
+    <t xml:space="preserve">class6,table11,obj1,atr1,np </t>
+  </si>
+  <si>
+    <t xml:space="preserve">class6,table13,obj1,atr1,np </t>
+  </si>
+  <si>
+    <t xml:space="preserve">class34,table11,obj23,atr1,p </t>
   </si>
 </sst>
 </file>
@@ -698,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A6EC9D-0AD4-FD4B-B5E1-BB38D90BCC47}">
   <dimension ref="A1:B123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="B123" sqref="B123"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -726,7 +717,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -734,7 +725,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -742,7 +733,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -750,7 +741,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -758,7 +749,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -766,7 +757,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -774,7 +765,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -782,7 +773,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -790,7 +781,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -798,7 +789,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -806,7 +797,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -814,7 +805,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -822,7 +813,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -830,7 +821,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -838,7 +829,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -846,7 +837,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -854,7 +845,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -862,7 +853,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -870,7 +861,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -878,7 +869,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -886,7 +877,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -894,7 +885,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -902,7 +893,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -910,7 +901,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -918,7 +909,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -926,7 +917,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -934,7 +925,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -942,7 +933,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -950,7 +941,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -958,7 +949,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -966,7 +957,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -974,7 +965,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -982,7 +973,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -990,7 +981,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -998,7 +989,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1006,7 +997,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1014,7 +1005,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1022,7 +1013,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1030,7 +1021,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1038,7 +1029,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1046,7 +1037,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1054,7 +1045,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1062,7 +1053,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1070,7 +1061,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1078,7 +1069,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1086,7 +1077,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1094,7 +1085,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1102,7 +1093,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1110,7 +1101,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1118,7 +1109,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1126,7 +1117,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1134,7 +1125,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1142,7 +1133,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1150,7 +1141,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1158,7 +1149,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1166,7 +1157,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1174,7 +1165,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1182,7 +1173,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1190,7 +1181,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1198,7 +1189,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1206,7 +1197,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1214,7 +1205,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1222,7 +1213,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1230,7 +1221,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1238,7 +1229,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1246,7 +1237,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1254,7 +1245,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1262,7 +1253,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1270,7 +1261,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1278,7 +1269,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1286,7 +1277,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1294,7 +1285,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1302,7 +1293,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1310,7 +1301,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1318,7 +1309,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1326,7 +1317,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1334,7 +1325,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1342,7 +1333,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1350,7 +1341,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1358,7 +1349,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1366,7 +1357,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1374,7 +1365,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1382,7 +1373,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1390,7 +1381,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1398,7 +1389,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1406,7 +1397,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1414,7 +1405,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1422,7 +1413,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1430,7 +1421,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1438,7 +1429,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1446,7 +1437,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1454,7 +1445,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1462,7 +1453,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1470,7 +1461,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1478,7 +1469,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -1486,7 +1477,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -1494,7 +1485,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -1502,7 +1493,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1510,7 +1501,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -1518,7 +1509,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1526,7 +1517,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1534,7 +1525,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -1542,7 +1533,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -1550,7 +1541,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -1558,7 +1549,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -1566,7 +1557,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -1574,15 +1565,15 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -1590,7 +1581,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -1598,7 +1589,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -1606,7 +1597,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -1614,7 +1605,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -1622,7 +1613,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -1630,7 +1621,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -1638,7 +1629,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -1646,7 +1637,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -1654,15 +1645,15 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -1670,7 +1661,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -1678,7 +1669,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -1686,7 +1677,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="B123">
         <v>1</v>
